--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/4.TraBH/TBH220415_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/4.TraBH/TBH220415_GPSTayNinh.xlsx
@@ -716,6 +716,99 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,99 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1201,77 +1201,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="43" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="46" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="46" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="49" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -1279,59 +1279,59 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1509,26 +1509,26 @@
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1573,38 +1573,28 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
     </row>
     <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B27:C27"/>
@@ -1612,6 +1602,16 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/4.TraBH/TBH220415_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/4.TraBH/TBH220415_GPSTayNinh.xlsx
@@ -716,6 +716,60 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -769,60 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1201,77 +1201,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="34" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="37" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="40" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
@@ -1279,59 +1279,59 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1509,26 +1509,26 @@
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1573,28 +1573,38 @@
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B27:C27"/>
@@ -1602,16 +1612,6 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
